--- a/data/trans_orig/RUIDO_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1819E909-2007-4FB7-BACA-9F923894D1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC74A6C7-07D8-460C-B187-4D7854827268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{051AC882-0FF0-48AA-A7A0-097F8E590683}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9CBE7FEA-5647-40EB-BC5C-91BBE0DD7C38}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="453">
   <si>
     <t>Población según lo que estaría dispuesta a pagar al año para que la administración pública ponga en marcha actuaciones (+++) en su municipio/ciudad (o lugar de residencia) que haga reducir la contaminación del ruido en 2023 (Tasa respuesta: 51,54%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Más de 50€</t>
@@ -101,1210 +101,1297 @@
     <t>25 €</t>
   </si>
   <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>20 €</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15 €</t>
+  </si>
+  <si>
+    <t>10 €</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>11,01%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>20 €</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15 €</t>
-  </si>
-  <si>
-    <t>10 €</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5 €</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1719,8 +1806,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122A88E1-FF7E-462A-8D60-BEF9A10CA78C}">
-  <dimension ref="A1:Q88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243E5C5D-34F0-4CA7-9E38-78B9FD48EB3A}">
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2095,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>3816</v>
+        <v>5059</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -2110,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>1370</v>
+        <v>1293</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -2125,64 +2212,64 @@
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>5186</v>
+        <v>6352</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>7524</v>
+        <v>8276</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>11691</v>
+        <v>10480</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>19215</v>
+        <v>18756</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>35</v>
@@ -2248,7 +2335,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>14161</v>
+        <v>18441</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>38</v>
@@ -2263,133 +2350,133 @@
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>15592</v>
+        <v>19860</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="7">
         <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>22070</v>
+        <v>22552</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>34003</v>
+        <v>30699</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>56073</v>
+        <v>53250</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="7">
         <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>130089</v>
+        <v>133042</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>75</v>
       </c>
       <c r="I14" s="7">
-        <v>129819</v>
+        <v>113406</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>133</v>
       </c>
       <c r="N14" s="7">
-        <v>259909</v>
+        <v>246447</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,51 +2488,51 @@
         <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>177660</v>
+        <v>187370</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H15" s="7">
         <v>103</v>
       </c>
       <c r="I15" s="7">
-        <v>178315</v>
+        <v>157297</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M15" s="7">
         <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>355975</v>
+        <v>344666</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2463,37 +2550,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1451</v>
+        <v>1341</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>1451</v>
+        <v>1341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,46 +2592,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1992</v>
+        <v>1976</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>2152</v>
+        <v>2140</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
@@ -2571,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>1373</v>
+        <v>1723</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>81</v>
@@ -2586,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>1533</v>
+        <v>1888</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>83</v>
@@ -2595,7 +2682,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,37 +2703,37 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1132</v>
+        <v>1066</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1132</v>
+        <v>1066</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,46 +2745,46 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>2055</v>
+        <v>1814</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>2700</v>
+        <v>2547</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>4755</v>
+        <v>4361</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,97 +2796,97 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>1557</v>
+        <v>1563</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>1159</v>
+        <v>1079</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
       </c>
       <c r="N21" s="7">
-        <v>2716</v>
+        <v>2642</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>2339</v>
+        <v>2381</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>5086</v>
+        <v>5109</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>7425</v>
+        <v>7491</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,28 +2898,28 @@
         <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>6308</v>
+        <v>6187</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>1951</v>
+        <v>1972</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>111</v>
@@ -2841,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>8260</v>
+        <v>8159</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>112</v>
@@ -2862,7 +2949,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>20294</v>
+        <v>20778</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>115</v>
@@ -2877,133 +2964,133 @@
         <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>7429</v>
+        <v>6937</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>118</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
       </c>
       <c r="N24" s="7">
-        <v>27723</v>
+        <v>27714</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="7">
         <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>23725</v>
+        <v>22065</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
       </c>
       <c r="I25" s="7">
-        <v>23232</v>
+        <v>21587</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
       </c>
       <c r="N25" s="7">
-        <v>46957</v>
+        <v>43652</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="7">
         <v>92</v>
       </c>
       <c r="D26" s="7">
-        <v>131848</v>
+        <v>131708</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>160</v>
       </c>
       <c r="I26" s="7">
-        <v>169497</v>
+        <v>152658</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>252</v>
       </c>
       <c r="N26" s="7">
-        <v>301345</v>
+        <v>284366</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,51 +3102,51 @@
         <v>134</v>
       </c>
       <c r="D27" s="7">
-        <v>188446</v>
+        <v>186824</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H27" s="7">
         <v>209</v>
       </c>
       <c r="I27" s="7">
-        <v>217001</v>
+        <v>197996</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M27" s="7">
         <v>343</v>
       </c>
       <c r="N27" s="7">
-        <v>405447</v>
+        <v>384820</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3068,43 +3155,43 @@
         <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>5548</v>
+        <v>5523</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>1617</v>
+        <v>1543</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
       </c>
       <c r="N28" s="7">
-        <v>7165</v>
+        <v>7066</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>148</v>
@@ -3119,7 +3206,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>3256</v>
+        <v>3242</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>149</v>
@@ -3134,31 +3221,31 @@
         <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>3111</v>
+        <v>2920</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
       </c>
       <c r="N29" s="7">
-        <v>6367</v>
+        <v>6162</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,16 +3257,16 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>1186</v>
+        <v>1165</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3194,22 +3281,22 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>1186</v>
+        <v>1165</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,37 +3317,37 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,46 +3359,46 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1931</v>
+        <v>1850</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
       </c>
       <c r="I32" s="7">
-        <v>2932</v>
+        <v>2763</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
       </c>
       <c r="N32" s="7">
-        <v>4863</v>
+        <v>4614</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>167</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,97 +3410,97 @@
         <v>3</v>
       </c>
       <c r="D33" s="7">
-        <v>3819</v>
+        <v>3697</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
       </c>
       <c r="I33" s="7">
-        <v>3274</v>
+        <v>3042</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
       </c>
       <c r="N33" s="7">
-        <v>7093</v>
+        <v>6739</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7">
         <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>3739</v>
+        <v>4172</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
       </c>
       <c r="I34" s="7">
-        <v>9113</v>
+        <v>8551</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
       </c>
       <c r="N34" s="7">
-        <v>12852</v>
+        <v>12723</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,46 +3512,46 @@
         <v>7</v>
       </c>
       <c r="D35" s="7">
-        <v>8979</v>
+        <v>9057</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
       </c>
       <c r="I35" s="7">
-        <v>2229</v>
+        <v>2158</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
       </c>
       <c r="N35" s="7">
-        <v>11208</v>
+        <v>11215</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,148 +3563,148 @@
         <v>16</v>
       </c>
       <c r="D36" s="7">
-        <v>16264</v>
+        <v>15996</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
       </c>
       <c r="I36" s="7">
-        <v>19115</v>
+        <v>18223</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
       </c>
       <c r="N36" s="7">
-        <v>35379</v>
+        <v>34219</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" s="7">
         <v>40</v>
       </c>
       <c r="D37" s="7">
-        <v>37106</v>
+        <v>34771</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
       </c>
       <c r="I37" s="7">
-        <v>28509</v>
+        <v>26267</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M37" s="7">
         <v>90</v>
       </c>
       <c r="N37" s="7">
-        <v>65616</v>
+        <v>61038</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7">
         <v>217</v>
       </c>
       <c r="D38" s="7">
-        <v>224766</v>
+        <v>215894</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H38" s="7">
         <v>302</v>
       </c>
       <c r="I38" s="7">
-        <v>205467</v>
+        <v>191155</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M38" s="7">
         <v>519</v>
       </c>
       <c r="N38" s="7">
-        <v>430233</v>
+        <v>407049</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,51 +3716,51 @@
         <v>298</v>
       </c>
       <c r="D39" s="7">
-        <v>306596</v>
+        <v>295367</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H39" s="7">
         <v>410</v>
       </c>
       <c r="I39" s="7">
-        <v>276139</v>
+        <v>257379</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M39" s="7">
         <v>708</v>
       </c>
       <c r="N39" s="7">
-        <v>582735</v>
+        <v>552746</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3682,46 +3769,46 @@
         <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>1119</v>
+        <v>1050</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H40" s="7">
         <v>4</v>
       </c>
       <c r="I40" s="7">
-        <v>2700</v>
+        <v>2566</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
       </c>
       <c r="N40" s="7">
-        <v>3819</v>
+        <v>3616</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,46 +3820,46 @@
         <v>2</v>
       </c>
       <c r="D41" s="7">
-        <v>2312</v>
+        <v>2456</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
       </c>
       <c r="I41" s="7">
-        <v>3090</v>
+        <v>2848</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
       </c>
       <c r="N41" s="7">
-        <v>5402</v>
+        <v>5305</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,46 +3871,46 @@
         <v>1</v>
       </c>
       <c r="D42" s="7">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
       </c>
       <c r="N42" s="7">
-        <v>1836</v>
+        <v>1777</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3931,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3859,7 +3946,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3874,7 +3961,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,46 +3973,46 @@
         <v>5</v>
       </c>
       <c r="D44" s="7">
-        <v>5603</v>
+        <v>5520</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H44" s="7">
         <v>6</v>
       </c>
       <c r="I44" s="7">
-        <v>3360</v>
+        <v>3241</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M44" s="7">
         <v>11</v>
       </c>
       <c r="N44" s="7">
-        <v>8963</v>
+        <v>8761</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,97 +4024,97 @@
         <v>4</v>
       </c>
       <c r="D45" s="7">
-        <v>3839</v>
+        <v>4005</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
       </c>
       <c r="I45" s="7">
-        <v>727</v>
+        <v>665</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="M45" s="7">
         <v>5</v>
       </c>
       <c r="N45" s="7">
-        <v>4566</v>
+        <v>4670</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" s="7">
         <v>6</v>
       </c>
       <c r="D46" s="7">
-        <v>6963</v>
+        <v>6848</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H46" s="7">
         <v>12</v>
       </c>
       <c r="I46" s="7">
-        <v>18389</v>
+        <v>40926</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M46" s="7">
         <v>18</v>
       </c>
       <c r="N46" s="7">
-        <v>25353</v>
+        <v>47774</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,46 +4126,46 @@
         <v>10</v>
       </c>
       <c r="D47" s="7">
-        <v>9509</v>
+        <v>9852</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H47" s="7">
         <v>8</v>
       </c>
       <c r="I47" s="7">
-        <v>5260</v>
+        <v>4978</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M47" s="7">
         <v>18</v>
       </c>
       <c r="N47" s="7">
-        <v>14770</v>
+        <v>14830</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,22 +4177,22 @@
         <v>11</v>
       </c>
       <c r="D48" s="7">
-        <v>11828</v>
+        <v>11349</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>70</v>
+        <v>256</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="H48" s="7">
         <v>27</v>
       </c>
       <c r="I48" s="7">
-        <v>16623</v>
+        <v>15819</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>258</v>
@@ -4120,64 +4207,64 @@
         <v>38</v>
       </c>
       <c r="N48" s="7">
-        <v>28452</v>
+        <v>27169</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>261</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" s="7">
         <v>53</v>
       </c>
       <c r="D49" s="7">
-        <v>49360</v>
+        <v>44766</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H49" s="7">
         <v>65</v>
       </c>
       <c r="I49" s="7">
-        <v>35822</v>
+        <v>32313</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M49" s="7">
         <v>118</v>
       </c>
       <c r="N49" s="7">
-        <v>85182</v>
+        <v>77079</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>270</v>
@@ -4186,13 +4273,13 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="7">
         <v>248</v>
       </c>
       <c r="D50" s="7">
-        <v>255382</v>
+        <v>246856</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>271</v>
@@ -4207,7 +4294,7 @@
         <v>431</v>
       </c>
       <c r="I50" s="7">
-        <v>275836</v>
+        <v>255331</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>274</v>
@@ -4222,7 +4309,7 @@
         <v>679</v>
       </c>
       <c r="N50" s="7">
-        <v>531218</v>
+        <v>502188</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>277</v>
@@ -4243,46 +4330,46 @@
         <v>341</v>
       </c>
       <c r="D51" s="7">
-        <v>347062</v>
+        <v>333830</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H51" s="7">
         <v>559</v>
       </c>
       <c r="I51" s="7">
-        <v>362499</v>
+        <v>359337</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M51" s="7">
         <v>900</v>
       </c>
       <c r="N51" s="7">
-        <v>709561</v>
+        <v>693168</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="7">
-        <v>1091</v>
+        <v>1021</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -4311,10 +4398,10 @@
         <v>2</v>
       </c>
       <c r="I52" s="7">
-        <v>1412</v>
+        <v>1319</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
@@ -4326,10 +4413,10 @@
         <v>4</v>
       </c>
       <c r="N52" s="7">
-        <v>2504</v>
+        <v>2340</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>283</v>
@@ -4347,13 +4434,13 @@
         <v>3</v>
       </c>
       <c r="D53" s="7">
-        <v>3483</v>
+        <v>3363</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>149</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>285</v>
@@ -4362,31 +4449,31 @@
         <v>2</v>
       </c>
       <c r="I53" s="7">
-        <v>826</v>
+        <v>779</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
       </c>
       <c r="N53" s="7">
-        <v>4309</v>
+        <v>4142</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>282</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,37 +4494,37 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
       </c>
       <c r="I54" s="7">
-        <v>705</v>
+        <v>631</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>287</v>
+        <v>158</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
       </c>
       <c r="N54" s="7">
-        <v>705</v>
+        <v>631</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>101</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,28 +4545,28 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
       </c>
       <c r="I55" s="7">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
       </c>
       <c r="N55" s="7">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>283</v>
@@ -4488,7 +4575,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,46 +4587,46 @@
         <v>4</v>
       </c>
       <c r="D56" s="7">
-        <v>3991</v>
+        <v>3908</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="H56" s="7">
         <v>8</v>
       </c>
       <c r="I56" s="7">
-        <v>4974</v>
+        <v>4743</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M56" s="7">
         <v>12</v>
       </c>
       <c r="N56" s="7">
-        <v>8965</v>
+        <v>8651</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>294</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,97 +4638,97 @@
         <v>2</v>
       </c>
       <c r="D57" s="7">
-        <v>2578</v>
+        <v>2406</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>164</v>
+        <v>296</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H57" s="7">
         <v>4</v>
       </c>
       <c r="I57" s="7">
-        <v>2555</v>
+        <v>2432</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M57" s="7">
         <v>6</v>
       </c>
       <c r="N57" s="7">
-        <v>5133</v>
+        <v>4839</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58" s="7">
         <v>2</v>
       </c>
       <c r="D58" s="7">
-        <v>2016</v>
+        <v>2047</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="H58" s="7">
         <v>5</v>
       </c>
       <c r="I58" s="7">
-        <v>3445</v>
+        <v>3224</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="M58" s="7">
         <v>7</v>
       </c>
       <c r="N58" s="7">
-        <v>5461</v>
+        <v>5271</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P58" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="Q58" s="7" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,43 +4740,43 @@
         <v>3</v>
       </c>
       <c r="D59" s="7">
-        <v>3002</v>
+        <v>2802</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="H59" s="7">
         <v>10</v>
       </c>
       <c r="I59" s="7">
-        <v>5687</v>
+        <v>5473</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M59" s="7">
         <v>13</v>
       </c>
       <c r="N59" s="7">
-        <v>8689</v>
+        <v>8275</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>306</v>
+        <v>113</v>
       </c>
       <c r="Q59" s="7" t="s">
         <v>307</v>
@@ -4704,148 +4791,148 @@
         <v>12</v>
       </c>
       <c r="D60" s="7">
-        <v>14326</v>
+        <v>13665</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>308</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H60" s="7">
         <v>35</v>
       </c>
       <c r="I60" s="7">
-        <v>19857</v>
+        <v>18507</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M60" s="7">
         <v>47</v>
       </c>
       <c r="N60" s="7">
-        <v>34182</v>
+        <v>32172</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>313</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C61" s="7">
         <v>43</v>
       </c>
       <c r="D61" s="7">
-        <v>35562</v>
+        <v>32091</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H61" s="7">
         <v>67</v>
       </c>
       <c r="I61" s="7">
-        <v>34723</v>
+        <v>31731</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M61" s="7">
         <v>110</v>
       </c>
       <c r="N61" s="7">
-        <v>70285</v>
+        <v>63822</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C62" s="7">
         <v>293</v>
       </c>
       <c r="D62" s="7">
-        <v>261676</v>
+        <v>245795</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H62" s="7">
         <v>409</v>
       </c>
       <c r="I62" s="7">
-        <v>244594</v>
+        <v>224672</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M62" s="7">
         <v>702</v>
       </c>
       <c r="N62" s="7">
-        <v>506270</v>
+        <v>470466</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,51 +4944,51 @@
         <v>364</v>
       </c>
       <c r="D63" s="7">
-        <v>327725</v>
+        <v>307098</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H63" s="7">
         <v>544</v>
       </c>
       <c r="I63" s="7">
-        <v>319494</v>
+        <v>294170</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M63" s="7">
         <v>908</v>
       </c>
       <c r="N63" s="7">
-        <v>647219</v>
+        <v>601267</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>10</v>
@@ -4910,46 +4997,46 @@
         <v>2</v>
       </c>
       <c r="D64" s="7">
-        <v>1627</v>
+        <v>1472</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M64" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N64" s="7">
-        <v>2281</v>
+        <v>1472</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,49 +5045,49 @@
         <v>16</v>
       </c>
       <c r="C65" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" s="7">
-        <v>3882</v>
+        <v>2308</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>337</v>
+        <v>170</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
       <c r="H65" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="7">
-        <v>830</v>
+        <v>159</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="M65" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N65" s="7">
-        <v>4712</v>
+        <v>2468</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>340</v>
       </c>
       <c r="P65" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,7 +5108,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -5036,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>232</v>
+        <v>336</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -5051,7 +5138,7 @@
         <v>12</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>163</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,7 +5159,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -5087,7 +5174,7 @@
         <v>12</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>232</v>
+        <v>336</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -5102,7 +5189,7 @@
         <v>12</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>163</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,46 +5198,46 @@
         <v>19</v>
       </c>
       <c r="C68" s="7">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7">
+        <v>873</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H68" s="7">
+        <v>1</v>
+      </c>
+      <c r="I68" s="7">
+        <v>363</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M68" s="7">
         <v>2</v>
       </c>
-      <c r="D68" s="7">
-        <v>1704</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H68" s="7">
-        <v>3</v>
-      </c>
-      <c r="I68" s="7">
-        <v>1238</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M68" s="7">
-        <v>5</v>
-      </c>
       <c r="N68" s="7">
-        <v>2943</v>
+        <v>1236</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
         <v>344</v>
@@ -5162,100 +5249,100 @@
         <v>20</v>
       </c>
       <c r="C69" s="7">
+        <v>2</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1743</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H69" s="7">
+        <v>2</v>
+      </c>
+      <c r="I69" s="7">
+        <v>1065</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M69" s="7">
         <v>4</v>
       </c>
-      <c r="D69" s="7">
-        <v>3525</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H69" s="7">
-        <v>3</v>
-      </c>
-      <c r="I69" s="7">
-        <v>1863</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M69" s="7">
-        <v>7</v>
-      </c>
       <c r="N69" s="7">
-        <v>5388</v>
+        <v>2808</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D70" s="7">
-        <v>7526</v>
+        <v>3920</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="H70" s="7">
+        <v>11</v>
+      </c>
+      <c r="I70" s="7">
+        <v>5049</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M70" s="7">
+        <v>17</v>
+      </c>
+      <c r="N70" s="7">
+        <v>8969</v>
+      </c>
+      <c r="O70" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H70" s="7">
-        <v>13</v>
-      </c>
-      <c r="I70" s="7">
-        <v>6221</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M70" s="7">
-        <v>24</v>
-      </c>
-      <c r="N70" s="7">
-        <v>13747</v>
-      </c>
-      <c r="O70" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="P70" s="7" t="s">
-        <v>353</v>
+        <v>84</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,49 +5351,49 @@
         <v>36</v>
       </c>
       <c r="C71" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D71" s="7">
-        <v>5380</v>
+        <v>3858</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="G71" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H71" s="7">
+        <v>5</v>
+      </c>
+      <c r="I71" s="7">
+        <v>2258</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H71" s="7">
-        <v>6</v>
-      </c>
-      <c r="I71" s="7">
-        <v>2624</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="M71" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N71" s="7">
-        <v>8004</v>
+        <v>6116</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>337</v>
+        <v>93</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,151 +5402,151 @@
         <v>37</v>
       </c>
       <c r="C72" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D72" s="7">
-        <v>13407</v>
+        <v>7467</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H72" s="7">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I72" s="7">
-        <v>13662</v>
+        <v>6063</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>358</v>
+        <v>228</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>359</v>
+        <v>118</v>
       </c>
       <c r="M72" s="7">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="N72" s="7">
-        <v>27070</v>
+        <v>13530</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C73" s="7">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D73" s="7">
-        <v>36533</v>
+        <v>18170</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H73" s="7">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="I73" s="7">
-        <v>44265</v>
+        <v>18020</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M73" s="7">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="N73" s="7">
-        <v>80798</v>
+        <v>36190</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C74" s="7">
-        <v>436</v>
+        <v>240</v>
       </c>
       <c r="D74" s="7">
-        <v>296413</v>
+        <v>154712</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="H74" s="7">
-        <v>771</v>
+        <v>344</v>
       </c>
       <c r="I74" s="7">
-        <v>520648</v>
+        <v>372236</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="M74" s="7">
-        <v>1207</v>
+        <v>584</v>
       </c>
       <c r="N74" s="7">
-        <v>817061</v>
+        <v>526948</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,102 +5555,102 @@
         <v>3</v>
       </c>
       <c r="C75" s="7">
-        <v>546</v>
+        <v>302</v>
       </c>
       <c r="D75" s="7">
-        <v>369998</v>
+        <v>194524</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H75" s="7">
-        <v>918</v>
+        <v>420</v>
       </c>
       <c r="I75" s="7">
-        <v>592006</v>
+        <v>405213</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M75" s="7">
-        <v>1464</v>
+        <v>722</v>
       </c>
       <c r="N75" s="7">
-        <v>962004</v>
+        <v>599737</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>3</v>
+        <v>371</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D76" s="7">
-        <v>9386</v>
+        <v>0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>346</v>
+        <v>12</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="H76" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I76" s="7">
-        <v>7834</v>
+        <v>591</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>337</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="M76" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N76" s="7">
-        <v>17220</v>
+        <v>591</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>147</v>
+        <v>372</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,49 +5659,49 @@
         <v>16</v>
       </c>
       <c r="C77" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D77" s="7">
-        <v>13094</v>
+        <v>1427</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>224</v>
+        <v>373</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>380</v>
+        <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H77" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I77" s="7">
-        <v>9848</v>
+        <v>602</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="M77" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="N77" s="7">
-        <v>22942</v>
+        <v>2029</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,49 +5710,49 @@
         <v>17</v>
       </c>
       <c r="C78" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D78" s="7">
-        <v>2492</v>
+        <v>0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>383</v>
+        <v>11</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>384</v>
+        <v>12</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>382</v>
+        <v>296</v>
       </c>
       <c r="H78" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>2767</v>
+        <v>0</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>338</v>
+        <v>11</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="M78" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N78" s="7">
-        <v>5260</v>
+        <v>0</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>338</v>
+        <v>11</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>385</v>
+        <v>12</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,37 +5773,37 @@
         <v>12</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="H79" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>2622</v>
+        <v>0</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M79" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N79" s="7">
-        <v>2622</v>
+        <v>0</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>384</v>
+        <v>12</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,49 +5812,49 @@
         <v>19</v>
       </c>
       <c r="C80" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D80" s="7">
-        <v>15284</v>
+        <v>731</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>386</v>
+        <v>235</v>
       </c>
       <c r="H80" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I80" s="7">
-        <v>15204</v>
+        <v>778</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>387</v>
+        <v>173</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>91</v>
+        <v>375</v>
       </c>
       <c r="M80" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="N80" s="7">
-        <v>30488</v>
+        <v>1509</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,100 +5863,100 @@
         <v>20</v>
       </c>
       <c r="C81" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D81" s="7">
-        <v>19133</v>
+        <v>1624</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>240</v>
+        <v>376</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="H81" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I81" s="7">
-        <v>10949</v>
+        <v>634</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>186</v>
+        <v>377</v>
       </c>
       <c r="M81" s="7">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="N81" s="7">
-        <v>30082</v>
+        <v>2258</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D82" s="7">
-        <v>30106</v>
+        <v>3277</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>177</v>
+        <v>378</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>288</v>
+        <v>70</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H82" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="I82" s="7">
-        <v>53946</v>
+        <v>870</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>148</v>
+        <v>380</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>391</v>
+        <v>147</v>
       </c>
       <c r="M82" s="7">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="N82" s="7">
-        <v>84053</v>
+        <v>4147</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>392</v>
+        <v>164</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>393</v>
+        <v>300</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,49 +5965,49 @@
         <v>36</v>
       </c>
       <c r="C83" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D83" s="7">
-        <v>33179</v>
+        <v>1424</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>395</v>
+        <v>283</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="H83" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I83" s="7">
-        <v>17751</v>
+        <v>165</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>397</v>
+        <v>301</v>
       </c>
       <c r="M83" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="N83" s="7">
-        <v>50930</v>
+        <v>1589</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>336</v>
+        <v>28</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>398</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,151 +6016,151 @@
         <v>37</v>
       </c>
       <c r="C84" s="7">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D84" s="7">
-        <v>90281</v>
+        <v>4950</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>245</v>
+        <v>385</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="H84" s="7">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="I84" s="7">
-        <v>78117</v>
+        <v>6700</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>403</v>
+        <v>108</v>
       </c>
       <c r="M84" s="7">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="N84" s="7">
-        <v>168398</v>
+        <v>11650</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>404</v>
+        <v>236</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="7">
+        <v>26</v>
+      </c>
+      <c r="D85" s="7">
+        <v>14527</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H85" s="7">
         <v>46</v>
       </c>
-      <c r="C85" s="7">
-        <v>227</v>
-      </c>
-      <c r="D85" s="7">
-        <v>204356</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H85" s="7">
-        <v>314</v>
-      </c>
       <c r="I85" s="7">
-        <v>200555</v>
+        <v>20940</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>409</v>
+        <v>120</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="M85" s="7">
-        <v>541</v>
+        <v>72</v>
       </c>
       <c r="N85" s="7">
-        <v>404910</v>
+        <v>35467</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C86" s="7">
-        <v>1344</v>
+        <v>196</v>
       </c>
       <c r="D86" s="7">
-        <v>1300176</v>
+        <v>122062</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="H86" s="7">
-        <v>2148</v>
+        <v>427</v>
       </c>
       <c r="I86" s="7">
-        <v>1545861</v>
+        <v>205124</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="M86" s="7">
-        <v>3492</v>
+        <v>623</v>
       </c>
       <c r="N86" s="7">
-        <v>2846037</v>
+        <v>327187</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,63 +6169,678 @@
         <v>3</v>
       </c>
       <c r="C87" s="7">
+        <v>244</v>
+      </c>
+      <c r="D87" s="7">
+        <v>150023</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H87" s="7">
+        <v>498</v>
+      </c>
+      <c r="I87" s="7">
+        <v>236404</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M87" s="7">
+        <v>742</v>
+      </c>
+      <c r="N87" s="7">
+        <v>386427</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q87" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="7">
+        <v>10</v>
+      </c>
+      <c r="D88" s="7">
+        <v>9066</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="7">
+        <v>10</v>
+      </c>
+      <c r="I88" s="7">
+        <v>7360</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M88" s="7">
+        <v>20</v>
+      </c>
+      <c r="N88" s="7">
+        <v>16426</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q88" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="7">
+        <v>14</v>
+      </c>
+      <c r="D89" s="7">
+        <v>12961</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H89" s="7">
+        <v>14</v>
+      </c>
+      <c r="I89" s="7">
+        <v>9284</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M89" s="7">
+        <v>28</v>
+      </c>
+      <c r="N89" s="7">
+        <v>22245</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q89" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="7">
+        <v>3</v>
+      </c>
+      <c r="D90" s="7">
+        <v>2456</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H90" s="7">
+        <v>3</v>
+      </c>
+      <c r="I90" s="7">
+        <v>3004</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M90" s="7">
+        <v>6</v>
+      </c>
+      <c r="N90" s="7">
+        <v>5460</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P90" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q90" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="7">
+        <v>0</v>
+      </c>
+      <c r="D91" s="7">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H91" s="7">
+        <v>3</v>
+      </c>
+      <c r="I91" s="7">
+        <v>2482</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M91" s="7">
+        <v>3</v>
+      </c>
+      <c r="N91" s="7">
+        <v>2482</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P91" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q91" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="7">
+        <v>14</v>
+      </c>
+      <c r="D92" s="7">
+        <v>14696</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H92" s="7">
+        <v>24</v>
+      </c>
+      <c r="I92" s="7">
+        <v>14436</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M92" s="7">
+        <v>38</v>
+      </c>
+      <c r="N92" s="7">
+        <v>29132</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P92" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q92" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="7">
+        <v>15</v>
+      </c>
+      <c r="D93" s="7">
+        <v>20097</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H93" s="7">
+        <v>14</v>
+      </c>
+      <c r="I93" s="7">
+        <v>10211</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M93" s="7">
+        <v>29</v>
+      </c>
+      <c r="N93" s="7">
+        <v>30308</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P93" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q93" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="7">
+        <v>27</v>
+      </c>
+      <c r="D94" s="7">
+        <v>30922</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H94" s="7">
+        <v>51</v>
+      </c>
+      <c r="I94" s="7">
+        <v>74209</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="M94" s="7">
+        <v>78</v>
+      </c>
+      <c r="N94" s="7">
+        <v>105131</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P94" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q94" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="7">
+        <v>31</v>
+      </c>
+      <c r="D95" s="7">
+        <v>33180</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H95" s="7">
+        <v>30</v>
+      </c>
+      <c r="I95" s="7">
+        <v>17005</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M95" s="7">
+        <v>61</v>
+      </c>
+      <c r="N95" s="7">
+        <v>50184</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P95" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q95" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="7">
+        <v>78</v>
+      </c>
+      <c r="D96" s="7">
+        <v>92646</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H96" s="7">
+        <v>132</v>
+      </c>
+      <c r="I96" s="7">
+        <v>73667</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M96" s="7">
+        <v>210</v>
+      </c>
+      <c r="N96" s="7">
+        <v>166314</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P96" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q96" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="7">
+        <v>227</v>
+      </c>
+      <c r="D97" s="7">
+        <v>188942</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H97" s="7">
+        <v>314</v>
+      </c>
+      <c r="I97" s="7">
+        <v>181557</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M97" s="7">
+        <v>541</v>
+      </c>
+      <c r="N97" s="7">
+        <v>370499</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P97" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q97" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="7">
+        <v>1344</v>
+      </c>
+      <c r="D98" s="7">
+        <v>1250069</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H98" s="7">
+        <v>2148</v>
+      </c>
+      <c r="I98" s="7">
+        <v>1514580</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="M98" s="7">
+        <v>3492</v>
+      </c>
+      <c r="N98" s="7">
+        <v>2764650</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P98" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q98" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="7">
         <v>1763</v>
       </c>
-      <c r="D87" s="7">
-        <v>1717488</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H87" s="7">
+      <c r="D99" s="7">
+        <v>1655035</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H99" s="7">
         <v>2743</v>
       </c>
-      <c r="I87" s="7">
-        <v>1945454</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M87" s="7">
+      <c r="I99" s="7">
+        <v>1907795</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M99" s="7">
         <v>4506</v>
       </c>
-      <c r="N87" s="7">
-        <v>3662941</v>
-      </c>
-      <c r="O87" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P87" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q87" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>423</v>
+      <c r="N99" s="7">
+        <v>3562831</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P99" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A40:A51"/>
     <mergeCell ref="A52:A63"/>
     <mergeCell ref="A64:A75"/>
     <mergeCell ref="A76:A87"/>
+    <mergeCell ref="A88:A99"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
